--- a/biology/Biochimie/Arabitol/Arabitol.xlsx
+++ b/biology/Biochimie/Arabitol/Arabitol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arabitol est un polyol, appelé aussi lyxitol ou bien arabinitol.
@@ -512,10 +524,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arabitol est un pentol, un polyol ayant une chaîne carbonée linéaire composée de 5 atomes de carbone et 5 groupements alcools (un groupement par carbone). Il a la même formule chimique que le xylitol et le ribitol : C5H12O5.
-Il existe sous deux formes stéréo-isomères : L et D. La forme D est naturellement présente dans les lichens et champignons[4],[5].
+Il existe sous deux formes stéréo-isomères : L et D. La forme D est naturellement présente dans les lichens et champignons,.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le D-arabitol est non cariogène, possède une saveur sucrée plus faible que le saccharose et a une valeur calorifique faible proche de zéro[6]. 
-Le pouvoir sucrant du D-arabitol, sur une base molaire, est de 0,25 légèrement moins sucré que le xylitol qui est de 0,3[7]. À poids égal avec le saccharose, au saccharose au seuil de reconnaissance, le pouvoir sucrant de l'arabitol est identique à celui du saccharose[8].
-Mélangé avec un édulcorant naturel intense (thaumatine) il a le même profil sucré que le saccharose[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le D-arabitol est non cariogène, possède une saveur sucrée plus faible que le saccharose et a une valeur calorifique faible proche de zéro. 
+Le pouvoir sucrant du D-arabitol, sur une base molaire, est de 0,25 légèrement moins sucré que le xylitol qui est de 0,3. À poids égal avec le saccharose, au saccharose au seuil de reconnaissance, le pouvoir sucrant de l'arabitol est identique à celui du saccharose.
+Mélangé avec un édulcorant naturel intense (thaumatine) il a le même profil sucré que le saccharose.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le D-arabitol peut être produit à partir du D-glucose par une levure, la Candida famata sans produire d'autre composé inutile[9]. Il permet aussi de produire le D-xylulose à partir de l'Acetobacter aceti[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le D-arabitol peut être produit à partir du D-glucose par une levure, la Candida famata sans produire d'autre composé inutile. Il permet aussi de produire le D-xylulose à partir de l'Acetobacter aceti. 
 Le D-arabitol peut aussi être obtenu par réduction de l'arabinose ou bien du lyxose.
 </t>
         </is>
